--- a/ULS_Tawarruq_Ajith/TestData/MurabhaJSPaths.xlsx
+++ b/ULS_Tawarruq_Ajith/TestData/MurabhaJSPaths.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Murabha_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="Murabha_CommonElements" sheetId="3" r:id="rId2"/>
     <sheet name="AppData_EmploymentDetails" sheetId="6" r:id="rId3"/>
+    <sheet name="MurabhaContractSigningJS" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="333">
   <si>
     <t>JSPath</t>
   </si>
@@ -892,6 +893,132 @@
   </si>
   <si>
     <t>document.querySelectorAll('button[ng-reflect-text="Add"]')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.NOOFPARTNERS.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Murabha_contractsigning_fieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Contract Signing Authority.TOO"]').innerText</t>
+  </si>
+  <si>
+    <t>ContractSigningAuthorityMandatoryCheck</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Contract Signing Authority.TOO"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ContractSigningAuthorityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title-tool-tip="Offered Amount.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Offered Amount.TOOLTIP"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>ContractSigningdateMandatoryCheck</t>
+  </si>
+  <si>
+    <t>OfferedAmountMandatoryCheck</t>
+  </si>
+  <si>
+    <t>OfferedAmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Contract Signing Date.TOOLTIP"]').querySelector('p-calendar').querySelector('input')</t>
+  </si>
+  <si>
+    <t>ContractSigningdateInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Contract Validity.TOOLTIP"]').querySelector('p-calendar').querySelector('input')</t>
+  </si>
+  <si>
+    <t>ContractValidityInput</t>
+  </si>
+  <si>
+    <t>ContractValidityMandatoryCheck</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Contract Signing Authority.TOO"]').nextElementSibling.shadowRoot.querySelector('div').textContent</t>
+  </si>
+  <si>
+    <t>ContractSigningAuthorityText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Contract Signing Date.TOOLTIP"]').querySelector('span').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Contract Validity.TOOLTIP"]').querySelector('span').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Promissory Note Frequency.TOOL"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>PromissoryNoteFrequencydropdown</t>
+  </si>
+  <si>
+    <t>NumberOfPromissoryNote</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Number of Promissory Note.TOOL"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>NumberOfPromissoryNote_InvalidData</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Number of Promissory Note.TOOL"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="promnoteType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('td')[2].querySelector('span').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="promnoteType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('td')[3].querySelector('span').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="promnoteType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('td')[4].querySelector('span').innerText</t>
+  </si>
+  <si>
+    <t>Promissory Note Frequency_List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Promissory Note_List </t>
+  </si>
+  <si>
+    <t>Promissory Status_List</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="promnoteType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('td')[0].querySelectorAll('button')[1]</t>
+  </si>
+  <si>
+    <t>PromissoryDetailsFirstViewIcon</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('digital-text-box[id="promnotePercentage"]')[0].querySelector('ion-input').getAttribute('ng-reflect-model')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('digital-text-box[id="promnoteAmt"]')[0].querySelector('ion-input').getAttribute('ng-reflect-model')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('digital-prime-date[ng-reflect-title-tool-tip="Promissory Note Date.TOOLTIP"]')[0].querySelector('p-calendar').getAttribute('ng-reflect-model')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('digital-text-box[id="ispromnoteSigned"]')[0].querySelector('ion-input').getAttribute('ng-reflect-model')</t>
+  </si>
+  <si>
+    <t>PromissoryNotePercentage</t>
+  </si>
+  <si>
+    <t>PromissoryNoteAmount</t>
+  </si>
+  <si>
+    <t>PromissoryNoteDate</t>
+  </si>
+  <si>
+    <t>IsPromissoryNoteSigned</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1100,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1348,7 +1500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1534,9 +1688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2174,7 +2328,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2490,6 +2644,199 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="157" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>